--- a/teaching/traditional_assets/database/data/czech_republic/czech_republic_bank_money_center.xlsx
+++ b/teaching/traditional_assets/database/data/czech_republic/czech_republic_bank_money_center.xlsx
@@ -591,13 +591,13 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0278</v>
+        <v>-0.05455</v>
       </c>
       <c r="E2">
-        <v>0.0344</v>
+        <v>-0.07325000000000001</v>
       </c>
       <c r="F2">
-        <v>-0.0248</v>
+        <v>-0.0243</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -606,34 +606,34 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.003320814380996358</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.002707866896129233</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>797</v>
+        <v>555.3</v>
       </c>
       <c r="L2">
-        <v>0.436879899139396</v>
+        <v>0.3660514172709294</v>
       </c>
       <c r="M2">
-        <v>132.9</v>
+        <v>73.2</v>
       </c>
       <c r="N2">
-        <v>0.01505181493855824</v>
+        <v>0.009894031141868513</v>
       </c>
       <c r="O2">
-        <v>0.1667503136762861</v>
+        <v>0.1318206374932469</v>
       </c>
       <c r="P2">
-        <v>132.9</v>
+        <v>73.2</v>
       </c>
       <c r="Q2">
-        <v>0.01505181493855824</v>
+        <v>0.009894031141868513</v>
       </c>
       <c r="R2">
-        <v>0.1667503136762861</v>
+        <v>0.1318206374932469</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -642,67 +642,61 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>1615.8</v>
+        <v>2532.5</v>
       </c>
       <c r="V2">
-        <v>0.1830001698850444</v>
+        <v>0.342303741349481</v>
       </c>
       <c r="W2">
-        <v>0.1478511777283086</v>
+        <v>0.108641618237655</v>
       </c>
       <c r="X2">
-        <v>0.06187721820376861</v>
+        <v>0.05853195823809115</v>
       </c>
       <c r="Y2">
-        <v>0.08597395952454003</v>
+        <v>0.05010965999956389</v>
       </c>
       <c r="Z2">
-        <v>0.1233276006043075</v>
+        <v>0.1029402783526841</v>
       </c>
       <c r="AA2">
-        <v>0.001676819915440249</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.04552635264428292</v>
+        <v>0.03960677643099839</v>
       </c>
       <c r="AC2">
-        <v>-0.04384953272884268</v>
+        <v>-0.03960677643099839</v>
       </c>
       <c r="AD2">
-        <v>11152.7</v>
+        <v>9589.799999999999</v>
       </c>
       <c r="AE2">
-        <v>22.20919162374172</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>11174.90919162374</v>
+        <v>9589.799999999999</v>
       </c>
       <c r="AG2">
-        <v>9559.109191623742</v>
+        <v>7057.299999999999</v>
       </c>
       <c r="AH2">
-        <v>0.5586223059415775</v>
+        <v>0.5644977101752982</v>
       </c>
       <c r="AI2">
-        <v>0.6706497723829952</v>
+        <v>0.6102050815426611</v>
       </c>
       <c r="AJ2">
-        <v>0.5198386181363865</v>
+        <v>0.4882018857613259</v>
       </c>
       <c r="AK2">
-        <v>0.6352830034120692</v>
+        <v>0.535325262455246</v>
       </c>
       <c r="AL2">
         <v>0</v>
       </c>
       <c r="AM2">
         <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>1062.161904761905</v>
-      </c>
-      <c r="AP2">
-        <v>910.3913515832135</v>
       </c>
     </row>
     <row r="3">
@@ -713,7 +707,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MONETA Money Bank, a.s. (SEP:MONET)</t>
+          <t>Komercní banka, a.s. (SEP:KOMB)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -721,6 +715,15 @@
           <t>Bank (Money Center)</t>
         </is>
       </c>
+      <c r="D3">
+        <v>-0.016</v>
+      </c>
+      <c r="E3">
+        <v>-0.0557</v>
+      </c>
+      <c r="F3">
+        <v>-0.0243</v>
+      </c>
       <c r="G3">
         <v>0</v>
       </c>
@@ -728,103 +731,94 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.01450361904537145</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01182492594760902</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>165.1</v>
+        <v>430.9</v>
       </c>
       <c r="L3">
-        <v>0.3952597558056021</v>
+        <v>0.3631077778714081</v>
       </c>
       <c r="M3">
-        <v>132.9</v>
+        <v>-0</v>
       </c>
       <c r="N3">
-        <v>0.06933792455783377</v>
+        <v>-0</v>
       </c>
       <c r="O3">
-        <v>0.8049666868564507</v>
+        <v>-0</v>
       </c>
       <c r="P3">
-        <v>132.9</v>
+        <v>-0</v>
       </c>
       <c r="Q3">
-        <v>0.06933792455783377</v>
+        <v>-0</v>
       </c>
       <c r="R3">
-        <v>0.8049666868564507</v>
+        <v>-0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
       <c r="U3">
-        <v>326</v>
+        <v>2074.2</v>
       </c>
       <c r="V3">
-        <v>0.1700839985391558</v>
+        <v>0.3588705491539499</v>
       </c>
       <c r="W3">
-        <v>0.1500227169468423</v>
+        <v>0.1003329685426223</v>
       </c>
       <c r="X3">
-        <v>0.05394799987613727</v>
+        <v>0.06367954879277794</v>
       </c>
       <c r="Y3">
-        <v>0.09607471707070506</v>
+        <v>0.03665341974984436</v>
       </c>
       <c r="Z3">
-        <v>0.2836076814128886</v>
+        <v>0.09230063234527763</v>
       </c>
       <c r="AA3">
-        <v>0.003353639830880498</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.04576026334339317</v>
+        <v>0.03898376677617128</v>
       </c>
       <c r="AC3">
-        <v>-0.04240662351251268</v>
+        <v>-0.03898376677617128</v>
       </c>
       <c r="AD3">
-        <v>1142.1</v>
+        <v>8123.8</v>
       </c>
       <c r="AE3">
-        <v>22.20919162374172</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>1164.309191623742</v>
+        <v>8123.8</v>
       </c>
       <c r="AG3">
-        <v>838.3091916237415</v>
+        <v>6049.6</v>
       </c>
       <c r="AH3">
-        <v>0.3778986426879603</v>
+        <v>0.5842947150378319</v>
       </c>
       <c r="AI3">
-        <v>0.5225782712212285</v>
+        <v>0.6199528384679369</v>
       </c>
       <c r="AJ3">
-        <v>0.3042854427391803</v>
+        <v>0.511403790555734</v>
       </c>
       <c r="AK3">
-        <v>0.440749285185146</v>
+        <v>0.5484827329845779</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
         <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>108.7714285714286</v>
-      </c>
-      <c r="AP3">
-        <v>79.83897063083252</v>
       </c>
     </row>
     <row r="4">
@@ -835,7 +829,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Komercní banka, a.s. (SEP:KOMB)</t>
+          <t>MONETA Money Bank, a.s. (SEP:MONET)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -844,13 +838,10 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.0278</v>
+        <v>-0.0931</v>
       </c>
       <c r="E4">
-        <v>0.0344</v>
-      </c>
-      <c r="F4">
-        <v>-0.0248</v>
+        <v>-0.09080000000000001</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -865,82 +856,85 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>631.9</v>
+        <v>124.4</v>
       </c>
       <c r="L4">
-        <v>0.4492393004407792</v>
+        <v>0.3766273085074175</v>
       </c>
       <c r="M4">
-        <v>-0</v>
+        <v>73.2</v>
       </c>
       <c r="N4">
-        <v>-0</v>
+        <v>0.04522426788582726</v>
       </c>
       <c r="O4">
-        <v>-0</v>
+        <v>0.5884244372990354</v>
       </c>
       <c r="P4">
-        <v>-0</v>
+        <v>73.2</v>
       </c>
       <c r="Q4">
-        <v>-0</v>
+        <v>0.04522426788582726</v>
       </c>
       <c r="R4">
-        <v>-0</v>
+        <v>0.5884244372990354</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
       <c r="U4">
-        <v>1289.8</v>
+        <v>458.3</v>
       </c>
       <c r="V4">
-        <v>0.1865814141881726</v>
+        <v>0.2831459285802546</v>
       </c>
       <c r="W4">
-        <v>0.145679638509775</v>
+        <v>0.1169502679326878</v>
       </c>
       <c r="X4">
-        <v>0.06980643653139995</v>
+        <v>0.05338436768340436</v>
       </c>
       <c r="Y4">
-        <v>0.07587320197837502</v>
+        <v>0.06356590024928342</v>
       </c>
       <c r="Z4">
-        <v>0.1056045647359135</v>
+        <v>0.1757101819342483</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.04529244194517267</v>
+        <v>0.0402297860858255</v>
       </c>
       <c r="AC4">
-        <v>-0.04529244194517267</v>
+        <v>-0.0402297860858255</v>
       </c>
       <c r="AD4">
-        <v>10010.6</v>
+        <v>1466</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>10010.6</v>
+        <v>1466</v>
       </c>
       <c r="AG4">
-        <v>8720.800000000001</v>
+        <v>1007.7</v>
       </c>
       <c r="AH4">
-        <v>0.5915241618114563</v>
+        <v>0.4752642157816249</v>
       </c>
       <c r="AI4">
-        <v>0.6935045861390529</v>
+        <v>0.5612987211884524</v>
       </c>
       <c r="AJ4">
-        <v>0.5578241735748644</v>
+        <v>0.3836956935612839</v>
       </c>
       <c r="AK4">
-        <v>0.6634309623430963</v>
+        <v>0.4679359182725795</v>
       </c>
       <c r="AL4">
         <v>0</v>
